--- a/data/pca/factorExposure/factorExposure_2014-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.006162746356172621</v>
+        <v>-0.009066468786638818</v>
       </c>
       <c r="C2">
-        <v>0.04960485939971976</v>
+        <v>-0.06452961933231471</v>
       </c>
       <c r="D2">
-        <v>-0.1730381327375803</v>
+        <v>-0.02331867589031941</v>
       </c>
       <c r="E2">
-        <v>-0.1186466365024134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1659843978217012</v>
+      </c>
+      <c r="F2">
+        <v>-0.05244281121298942</v>
+      </c>
+      <c r="G2">
+        <v>0.09826218438783439</v>
+      </c>
+      <c r="H2">
+        <v>-0.06055017442986396</v>
+      </c>
+      <c r="I2">
+        <v>0.07476520743206694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.01865995140449828</v>
+        <v>-0.0135707047032511</v>
       </c>
       <c r="C4">
-        <v>0.142769047447731</v>
+        <v>-0.1522720951528355</v>
       </c>
       <c r="D4">
-        <v>-0.1038892508803206</v>
+        <v>0.008106119154143462</v>
       </c>
       <c r="E4">
-        <v>-0.04950029059923938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1031686115558701</v>
+      </c>
+      <c r="F4">
+        <v>0.06474937205303868</v>
+      </c>
+      <c r="G4">
+        <v>0.04566123588366644</v>
+      </c>
+      <c r="H4">
+        <v>-0.1032202783572028</v>
+      </c>
+      <c r="I4">
+        <v>-0.02792349083728635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0103681860211661</v>
+        <v>-0.02838672779211335</v>
       </c>
       <c r="C6">
-        <v>0.06374973651432807</v>
+        <v>-0.07123076709265208</v>
       </c>
       <c r="D6">
-        <v>-0.07858792836516933</v>
+        <v>-0.002144486647376008</v>
       </c>
       <c r="E6">
-        <v>-0.07647726432204711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1065789700499043</v>
+      </c>
+      <c r="F6">
+        <v>-0.03545788141495691</v>
+      </c>
+      <c r="G6">
+        <v>-0.01714945093303364</v>
+      </c>
+      <c r="H6">
+        <v>-0.04050718149545621</v>
+      </c>
+      <c r="I6">
+        <v>0.03036718026645566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01766060752175859</v>
+        <v>-0.004303734074679347</v>
       </c>
       <c r="C7">
-        <v>0.03783528098224404</v>
+        <v>-0.0597950677427748</v>
       </c>
       <c r="D7">
-        <v>-0.05670177345973754</v>
+        <v>-0.004826515283332221</v>
       </c>
       <c r="E7">
-        <v>-0.05680605879435464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0690341090694187</v>
+      </c>
+      <c r="F7">
+        <v>0.02803856797330946</v>
+      </c>
+      <c r="G7">
+        <v>-0.03968371266466893</v>
+      </c>
+      <c r="H7">
+        <v>-0.08281570400437518</v>
+      </c>
+      <c r="I7">
+        <v>0.003767132858930238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01343834579849594</v>
+        <v>0.009704742065811246</v>
       </c>
       <c r="C8">
-        <v>0.06111779235881904</v>
+        <v>-0.0670463038923538</v>
       </c>
       <c r="D8">
-        <v>-0.07922517052389323</v>
+        <v>0.01759306011483587</v>
       </c>
       <c r="E8">
-        <v>-0.09976026066479644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08294889445314958</v>
+      </c>
+      <c r="F8">
+        <v>0.01985478561305656</v>
+      </c>
+      <c r="G8">
+        <v>0.07224903842882047</v>
+      </c>
+      <c r="H8">
+        <v>-0.02364740111821606</v>
+      </c>
+      <c r="I8">
+        <v>0.007997857354568106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.008798596160526865</v>
+        <v>-0.00681693461019015</v>
       </c>
       <c r="C9">
-        <v>0.1210775988104276</v>
+        <v>-0.1209242024617189</v>
       </c>
       <c r="D9">
-        <v>-0.08234643552075507</v>
+        <v>0.007017785170579715</v>
       </c>
       <c r="E9">
-        <v>-0.05439534980703871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07570493328316803</v>
+      </c>
+      <c r="F9">
+        <v>0.01265603533426116</v>
+      </c>
+      <c r="G9">
+        <v>0.009816207024433468</v>
+      </c>
+      <c r="H9">
+        <v>-0.1006776246165438</v>
+      </c>
+      <c r="I9">
+        <v>-0.001728309804226032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.245477011912771</v>
+        <v>-0.2480850653838767</v>
       </c>
       <c r="C10">
-        <v>-0.06924132959161673</v>
+        <v>0.07291635938862746</v>
       </c>
       <c r="D10">
-        <v>-0.002032961955701237</v>
+        <v>0.002539834569697958</v>
       </c>
       <c r="E10">
-        <v>0.08806134580131234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01226004413175782</v>
+      </c>
+      <c r="F10">
+        <v>0.004010871694441691</v>
+      </c>
+      <c r="G10">
+        <v>0.005384988831617304</v>
+      </c>
+      <c r="H10">
+        <v>-0.03165416382748664</v>
+      </c>
+      <c r="I10">
+        <v>-0.1824788240206539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0006073356727666196</v>
+        <v>-0.009179936262592742</v>
       </c>
       <c r="C11">
-        <v>0.05193807468588274</v>
+        <v>-0.07581846320278386</v>
       </c>
       <c r="D11">
-        <v>-0.04002044908527379</v>
+        <v>0.01304793477847348</v>
       </c>
       <c r="E11">
-        <v>-0.04062064580075573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04505394929266709</v>
+      </c>
+      <c r="F11">
+        <v>0.01400787263001797</v>
+      </c>
+      <c r="G11">
+        <v>-0.02938841812702296</v>
+      </c>
+      <c r="H11">
+        <v>-0.04047234322062905</v>
+      </c>
+      <c r="I11">
+        <v>0.003333774501223707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.002787432213564278</v>
+        <v>-0.01080020049645606</v>
       </c>
       <c r="C12">
-        <v>0.0505289190112736</v>
+        <v>-0.06014783382123085</v>
       </c>
       <c r="D12">
-        <v>-0.03273819260464492</v>
+        <v>0.002587582910308514</v>
       </c>
       <c r="E12">
-        <v>-0.03163872553922324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03665678111224169</v>
+      </c>
+      <c r="F12">
+        <v>-0.01571836646898355</v>
+      </c>
+      <c r="G12">
+        <v>-0.03328328471402538</v>
+      </c>
+      <c r="H12">
+        <v>-0.04227058406447644</v>
+      </c>
+      <c r="I12">
+        <v>-0.005174516163158769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004742606671321316</v>
+        <v>-0.0007856180990458389</v>
       </c>
       <c r="C13">
-        <v>0.06815415334382713</v>
+        <v>-0.1032778185122431</v>
       </c>
       <c r="D13">
-        <v>-0.1155371002567714</v>
+        <v>-0.01851004255521584</v>
       </c>
       <c r="E13">
-        <v>-0.1251131144766947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1614949337221228</v>
+      </c>
+      <c r="F13">
+        <v>-0.09458023246335696</v>
+      </c>
+      <c r="G13">
+        <v>-0.04406416240716235</v>
+      </c>
+      <c r="H13">
+        <v>-0.0913488224610392</v>
+      </c>
+      <c r="I13">
+        <v>-0.079225702585604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005600676885631336</v>
+        <v>-0.006078512041737166</v>
       </c>
       <c r="C14">
-        <v>0.03955159268558876</v>
+        <v>-0.06740053721661002</v>
       </c>
       <c r="D14">
-        <v>-0.05769498398774585</v>
+        <v>0.01760864077122951</v>
       </c>
       <c r="E14">
-        <v>-0.07371674388236718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09585665512382109</v>
+      </c>
+      <c r="F14">
+        <v>-0.02700884762479596</v>
+      </c>
+      <c r="G14">
+        <v>-0.06564588757542428</v>
+      </c>
+      <c r="H14">
+        <v>-0.1583936981286193</v>
+      </c>
+      <c r="I14">
+        <v>0.03572757847034865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0005069656578501291</v>
+        <v>0.002830903093590123</v>
       </c>
       <c r="C15">
-        <v>0.05791456902665973</v>
+        <v>-0.06737589411222095</v>
       </c>
       <c r="D15">
-        <v>-0.06776940277329996</v>
+        <v>0.003138652118044794</v>
       </c>
       <c r="E15">
-        <v>-0.07172967092167605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06426158619859396</v>
+      </c>
+      <c r="F15">
+        <v>0.009869700633289845</v>
+      </c>
+      <c r="G15">
+        <v>-0.01210814748390522</v>
+      </c>
+      <c r="H15">
+        <v>-0.05234161395326554</v>
+      </c>
+      <c r="I15">
+        <v>0.01298174477444282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.003673188149756822</v>
+        <v>-0.009364014161747146</v>
       </c>
       <c r="C16">
-        <v>0.04693030341468356</v>
+        <v>-0.06372792709023115</v>
       </c>
       <c r="D16">
-        <v>-0.03089876618065491</v>
+        <v>0.004581455943303717</v>
       </c>
       <c r="E16">
-        <v>-0.0291731589021012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03134519827748193</v>
+      </c>
+      <c r="F16">
+        <v>0.001035138135241662</v>
+      </c>
+      <c r="G16">
+        <v>-0.03189273163635969</v>
+      </c>
+      <c r="H16">
+        <v>-0.03748202209374767</v>
+      </c>
+      <c r="I16">
+        <v>-0.004810957764263156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006197298484440754</v>
+        <v>-0.002222598905847637</v>
       </c>
       <c r="C20">
-        <v>0.05235096493789622</v>
+        <v>-0.07720122522123628</v>
       </c>
       <c r="D20">
-        <v>-0.07711357120396518</v>
+        <v>-0.008291184901393299</v>
       </c>
       <c r="E20">
-        <v>-0.04384863135506831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06615821037407905</v>
+      </c>
+      <c r="F20">
+        <v>0.02168427587428921</v>
+      </c>
+      <c r="G20">
+        <v>-0.05887045809182195</v>
+      </c>
+      <c r="H20">
+        <v>-0.06773930552490198</v>
+      </c>
+      <c r="I20">
+        <v>0.0002354434929024526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.001164583454222733</v>
+        <v>-0.004958623192949919</v>
       </c>
       <c r="C21">
-        <v>0.06463092495944035</v>
+        <v>-0.07468989386557737</v>
       </c>
       <c r="D21">
-        <v>-0.1087024732059236</v>
+        <v>-0.004879227895760761</v>
       </c>
       <c r="E21">
-        <v>-0.05049352200985158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09898421643064748</v>
+      </c>
+      <c r="F21">
+        <v>-0.07855884076114479</v>
+      </c>
+      <c r="G21">
+        <v>0.005062992112597217</v>
+      </c>
+      <c r="H21">
+        <v>-0.1809423550891669</v>
+      </c>
+      <c r="I21">
+        <v>-0.04615013275981111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01448444862145962</v>
+        <v>0.0168034084244434</v>
       </c>
       <c r="C22">
-        <v>0.09742273994515037</v>
+        <v>-0.1290809935023947</v>
       </c>
       <c r="D22">
-        <v>-0.272132205062575</v>
+        <v>-0.05797101699784218</v>
       </c>
       <c r="E22">
-        <v>-0.1046370119603412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3150366858467528</v>
+      </c>
+      <c r="F22">
+        <v>0.0953219722971953</v>
+      </c>
+      <c r="G22">
+        <v>0.3240053025602932</v>
+      </c>
+      <c r="H22">
+        <v>0.414684809600581</v>
+      </c>
+      <c r="I22">
+        <v>-0.03738825280106362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0149362697989585</v>
+        <v>0.01342389624765724</v>
       </c>
       <c r="C23">
-        <v>0.0990515359652063</v>
+        <v>-0.1333797485551319</v>
       </c>
       <c r="D23">
-        <v>-0.2709441858522833</v>
+        <v>-0.06043829291648943</v>
       </c>
       <c r="E23">
-        <v>-0.103884534827276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3096943465626603</v>
+      </c>
+      <c r="F23">
+        <v>0.09018779950755054</v>
+      </c>
+      <c r="G23">
+        <v>0.3143788180243889</v>
+      </c>
+      <c r="H23">
+        <v>0.3871204580033348</v>
+      </c>
+      <c r="I23">
+        <v>-0.03951014488746554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.00314445756256539</v>
+        <v>-0.009227500486981658</v>
       </c>
       <c r="C24">
-        <v>0.06494015646252362</v>
+        <v>-0.07435404619107934</v>
       </c>
       <c r="D24">
-        <v>-0.03676893157527933</v>
+        <v>0.01671671535366607</v>
       </c>
       <c r="E24">
-        <v>-0.04816101331462581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04754546892878996</v>
+      </c>
+      <c r="F24">
+        <v>0.00718484182591676</v>
+      </c>
+      <c r="G24">
+        <v>-0.03238982183516058</v>
+      </c>
+      <c r="H24">
+        <v>-0.05565236414711329</v>
+      </c>
+      <c r="I24">
+        <v>0.001996147672893106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.003769844725609408</v>
+        <v>-0.01461785998952009</v>
       </c>
       <c r="C25">
-        <v>0.06461973846310731</v>
+        <v>-0.07395594956736942</v>
       </c>
       <c r="D25">
-        <v>-0.03585845268094484</v>
+        <v>0.008866069297891343</v>
       </c>
       <c r="E25">
-        <v>-0.02292693045691435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0349166703175128</v>
+      </c>
+      <c r="F25">
+        <v>0.008409261066294201</v>
+      </c>
+      <c r="G25">
+        <v>-0.02843853206017462</v>
+      </c>
+      <c r="H25">
+        <v>-0.03744009553535926</v>
+      </c>
+      <c r="I25">
+        <v>-0.01569271388049587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.002671544066334891</v>
+        <v>-0.01578444587480527</v>
       </c>
       <c r="C26">
-        <v>0.03808651278374311</v>
+        <v>-0.0578910321333512</v>
       </c>
       <c r="D26">
-        <v>-0.04579939352402345</v>
+        <v>0.036237518384022</v>
       </c>
       <c r="E26">
-        <v>-0.06187544769890775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06611182382658715</v>
+      </c>
+      <c r="F26">
+        <v>-0.001342883870222851</v>
+      </c>
+      <c r="G26">
+        <v>-0.01964976849277997</v>
+      </c>
+      <c r="H26">
+        <v>-0.1330147088323494</v>
+      </c>
+      <c r="I26">
+        <v>-0.01436574523618711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3211415881164907</v>
+        <v>-0.3140826926963453</v>
       </c>
       <c r="C28">
-        <v>-0.08493248799826038</v>
+        <v>0.09538723561848442</v>
       </c>
       <c r="D28">
-        <v>-0.003408920925951649</v>
+        <v>-0.0149755112821496</v>
       </c>
       <c r="E28">
-        <v>0.07542175329247758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.005770622615712428</v>
+      </c>
+      <c r="F28">
+        <v>0.03546334531237813</v>
+      </c>
+      <c r="G28">
+        <v>0.07623415713636741</v>
+      </c>
+      <c r="H28">
+        <v>-0.06790873848056558</v>
+      </c>
+      <c r="I28">
+        <v>-0.1908691790276326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004691740172859194</v>
+        <v>-0.002030137553236801</v>
       </c>
       <c r="C29">
-        <v>0.04196196066141434</v>
+        <v>-0.07030839972656328</v>
       </c>
       <c r="D29">
-        <v>-0.07460596142964585</v>
+        <v>0.01224059748962294</v>
       </c>
       <c r="E29">
-        <v>-0.09423863140507231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1169004070403031</v>
+      </c>
+      <c r="F29">
+        <v>-0.03788458040889691</v>
+      </c>
+      <c r="G29">
+        <v>-0.09297726271516961</v>
+      </c>
+      <c r="H29">
+        <v>-0.1990072618954885</v>
+      </c>
+      <c r="I29">
+        <v>0.05768462049985845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01558510115842206</v>
+        <v>-0.01829690438157897</v>
       </c>
       <c r="C30">
-        <v>0.1464364868305963</v>
+        <v>-0.1467272937859578</v>
       </c>
       <c r="D30">
-        <v>-0.1101455545460351</v>
+        <v>0.01310879672793087</v>
       </c>
       <c r="E30">
-        <v>-0.09171676883279017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1031083245537874</v>
+      </c>
+      <c r="F30">
+        <v>0.02563346939472312</v>
+      </c>
+      <c r="G30">
+        <v>0.02306159529860793</v>
+      </c>
+      <c r="H30">
+        <v>-0.03786779291284626</v>
+      </c>
+      <c r="I30">
+        <v>0.02845829789274842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.006709403673504725</v>
+        <v>-0.00467243625177759</v>
       </c>
       <c r="C31">
-        <v>0.09579921648276916</v>
+        <v>-0.09937006512886451</v>
       </c>
       <c r="D31">
-        <v>0.006091004913501833</v>
+        <v>0.02511890841940734</v>
       </c>
       <c r="E31">
-        <v>-0.01927918858631767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00336751434451856</v>
+      </c>
+      <c r="F31">
+        <v>0.0008527237320909735</v>
+      </c>
+      <c r="G31">
+        <v>0.01979247688834704</v>
+      </c>
+      <c r="H31">
+        <v>-0.05576704680433708</v>
+      </c>
+      <c r="I31">
+        <v>-0.02243524770387582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01238288358926511</v>
+        <v>-0.01723651173618923</v>
       </c>
       <c r="C32">
-        <v>0.06098825707463227</v>
+        <v>-0.06449251375910908</v>
       </c>
       <c r="D32">
-        <v>-0.126818833829605</v>
+        <v>-0.02054180701484805</v>
       </c>
       <c r="E32">
-        <v>-0.04936489323179285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1093010783177428</v>
+      </c>
+      <c r="F32">
+        <v>-0.03208983319276928</v>
+      </c>
+      <c r="G32">
+        <v>0.0328756165746697</v>
+      </c>
+      <c r="H32">
+        <v>-0.1050010809465167</v>
+      </c>
+      <c r="I32">
+        <v>-0.212003125810333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006636306546707451</v>
+        <v>-0.005369274227739759</v>
       </c>
       <c r="C33">
-        <v>0.08000938452488908</v>
+        <v>-0.1062831013209283</v>
       </c>
       <c r="D33">
-        <v>-0.05691806294672298</v>
+        <v>0.0009626800264780657</v>
       </c>
       <c r="E33">
-        <v>-0.05846796765411697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07244865540957481</v>
+      </c>
+      <c r="F33">
+        <v>0.001900791389431009</v>
+      </c>
+      <c r="G33">
+        <v>-0.02739326039603516</v>
+      </c>
+      <c r="H33">
+        <v>-0.06056161586126532</v>
+      </c>
+      <c r="I33">
+        <v>-0.0303105751859109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.003563867516276859</v>
+        <v>-0.00932650845788857</v>
       </c>
       <c r="C34">
-        <v>0.05131673186205381</v>
+        <v>-0.05597230364083097</v>
       </c>
       <c r="D34">
-        <v>-0.0198126126446204</v>
+        <v>0.009107905454866418</v>
       </c>
       <c r="E34">
-        <v>-0.02747995000930296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02488821656546468</v>
+      </c>
+      <c r="F34">
+        <v>-0.00946622548370938</v>
+      </c>
+      <c r="G34">
+        <v>-0.03129875113340282</v>
+      </c>
+      <c r="H34">
+        <v>-0.01471355995627678</v>
+      </c>
+      <c r="I34">
+        <v>-0.01841918251217115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001322219796927672</v>
+        <v>-0.00565211929793659</v>
       </c>
       <c r="C35">
-        <v>0.006810993464556522</v>
+        <v>-0.03346022785531293</v>
       </c>
       <c r="D35">
-        <v>-0.0121948898953196</v>
+        <v>0.001300912418024814</v>
       </c>
       <c r="E35">
-        <v>-0.007090319817060083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04286007755675278</v>
+      </c>
+      <c r="F35">
+        <v>-0.006374626293816298</v>
+      </c>
+      <c r="G35">
+        <v>-0.03851347469271825</v>
+      </c>
+      <c r="H35">
+        <v>-0.1139537765740632</v>
+      </c>
+      <c r="I35">
+        <v>0.004005285878885295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0002624237045989427</v>
+        <v>-0.008475938252534992</v>
       </c>
       <c r="C36">
-        <v>0.0337716781844371</v>
+        <v>-0.0457616672823802</v>
       </c>
       <c r="D36">
-        <v>-0.04119933966983116</v>
+        <v>0.02281383222874211</v>
       </c>
       <c r="E36">
-        <v>-0.06896923849617838</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06667806710787803</v>
+      </c>
+      <c r="F36">
+        <v>-9.3003477138559e-05</v>
+      </c>
+      <c r="G36">
+        <v>-0.01597591535865444</v>
+      </c>
+      <c r="H36">
+        <v>-0.07543649058573679</v>
+      </c>
+      <c r="I36">
+        <v>-0.0017387708353535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.00480827767484033</v>
+        <v>-0.005743939398108581</v>
       </c>
       <c r="C38">
-        <v>0.03965144632835826</v>
+        <v>-0.05956997414858001</v>
       </c>
       <c r="D38">
-        <v>-0.0428124653074531</v>
+        <v>0.009603486135403629</v>
       </c>
       <c r="E38">
-        <v>-0.04677178756938113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06569795393222068</v>
+      </c>
+      <c r="F38">
+        <v>0.04539187902374367</v>
+      </c>
+      <c r="G38">
+        <v>-0.0002634704322515679</v>
+      </c>
+      <c r="H38">
+        <v>-0.0637903730015396</v>
+      </c>
+      <c r="I38">
+        <v>-0.03835640210543583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.001414613691720016</v>
+        <v>-0.007813568312891339</v>
       </c>
       <c r="C39">
-        <v>0.109838909496706</v>
+        <v>-0.1233446371868426</v>
       </c>
       <c r="D39">
-        <v>-0.07675415732720554</v>
+        <v>0.02147330469484957</v>
       </c>
       <c r="E39">
-        <v>-0.06987794323259573</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06796969775968648</v>
+      </c>
+      <c r="F39">
+        <v>-0.006712219489415461</v>
+      </c>
+      <c r="G39">
+        <v>-0.0496831553254924</v>
+      </c>
+      <c r="H39">
+        <v>-0.05272303641860977</v>
+      </c>
+      <c r="I39">
+        <v>0.04660916503182596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0001899819864540438</v>
+        <v>-0.008162244202872829</v>
       </c>
       <c r="C40">
-        <v>0.01195076852701349</v>
+        <v>-0.05285363026391415</v>
       </c>
       <c r="D40">
-        <v>-0.0801393262765879</v>
+        <v>-0.00498027878650444</v>
       </c>
       <c r="E40">
-        <v>-0.1123443261113564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1355568807149553</v>
+      </c>
+      <c r="F40">
+        <v>-0.0179782993623887</v>
+      </c>
+      <c r="G40">
+        <v>-0.07318942958899789</v>
+      </c>
+      <c r="H40">
+        <v>0.002429893682697375</v>
+      </c>
+      <c r="I40">
+        <v>-0.01248265479816382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003466791298064814</v>
+        <v>-0.01567483715805229</v>
       </c>
       <c r="C41">
-        <v>0.02572894044064435</v>
+        <v>-0.04989747099583344</v>
       </c>
       <c r="D41">
-        <v>0.002284861195093587</v>
+        <v>0.004912506525173434</v>
       </c>
       <c r="E41">
-        <v>0.009146633558333278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001871991892962194</v>
+      </c>
+      <c r="F41">
+        <v>0.004284607672521762</v>
+      </c>
+      <c r="G41">
+        <v>-0.009761570861540309</v>
+      </c>
+      <c r="H41">
+        <v>-0.03458471032379758</v>
+      </c>
+      <c r="I41">
+        <v>-0.04736807102460423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008750704100884294</v>
+        <v>-0.00734156805475099</v>
       </c>
       <c r="C43">
-        <v>0.01263364151439225</v>
+        <v>-0.039060978799962</v>
       </c>
       <c r="D43">
-        <v>-0.02198285840536484</v>
+        <v>0.01267963489924641</v>
       </c>
       <c r="E43">
-        <v>-0.0257864939977536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03297667641211032</v>
+      </c>
+      <c r="F43">
+        <v>0.01443680448468426</v>
+      </c>
+      <c r="G43">
+        <v>-0.02079724007635751</v>
+      </c>
+      <c r="H43">
+        <v>-0.0497410653979756</v>
+      </c>
+      <c r="I43">
+        <v>-0.02260865065712021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.007592915974571413</v>
+        <v>-0.003129048686933641</v>
       </c>
       <c r="C44">
-        <v>0.06186903867518588</v>
+        <v>-0.07820066967165258</v>
       </c>
       <c r="D44">
-        <v>-0.1045975189880793</v>
+        <v>0.02067469674982305</v>
       </c>
       <c r="E44">
-        <v>-0.08412869624978303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1165876343737194</v>
+      </c>
+      <c r="F44">
+        <v>0.004717150233089441</v>
+      </c>
+      <c r="G44">
+        <v>-0.003789944656512787</v>
+      </c>
+      <c r="H44">
+        <v>-0.02628664243300966</v>
+      </c>
+      <c r="I44">
+        <v>0.02805347353648803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007231875537252559</v>
+        <v>0.003059618671063133</v>
       </c>
       <c r="C46">
-        <v>0.04505305861944427</v>
+        <v>-0.06082895412465141</v>
       </c>
       <c r="D46">
-        <v>-0.06222551155966958</v>
+        <v>0.01625879724905858</v>
       </c>
       <c r="E46">
-        <v>-0.0931594510432219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07761581091305239</v>
+      </c>
+      <c r="F46">
+        <v>0.002122041060728509</v>
+      </c>
+      <c r="G46">
+        <v>-0.05185748533666461</v>
+      </c>
+      <c r="H46">
+        <v>-0.1210139875534873</v>
+      </c>
+      <c r="I46">
+        <v>0.01413916931940882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.01573600434405107</v>
+        <v>-0.02083038521101665</v>
       </c>
       <c r="C47">
-        <v>0.1344972500291586</v>
+        <v>-0.112934325333599</v>
       </c>
       <c r="D47">
-        <v>0.02053503921059674</v>
+        <v>0.02707886476528047</v>
       </c>
       <c r="E47">
-        <v>0.03565573352603256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02303584561983514</v>
+      </c>
+      <c r="F47">
+        <v>0.01265189554373089</v>
+      </c>
+      <c r="G47">
+        <v>0.01020125855462808</v>
+      </c>
+      <c r="H47">
+        <v>-0.07833714980902881</v>
+      </c>
+      <c r="I47">
+        <v>-0.03274859391246396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.005980465180921759</v>
+        <v>-0.01435462317076496</v>
       </c>
       <c r="C48">
-        <v>0.03452468174561187</v>
+        <v>-0.05020051151876742</v>
       </c>
       <c r="D48">
-        <v>-0.02961810761452744</v>
+        <v>0.03380384355939561</v>
       </c>
       <c r="E48">
-        <v>-0.08466422619084187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0692708246716458</v>
+      </c>
+      <c r="F48">
+        <v>0.007174070314472292</v>
+      </c>
+      <c r="G48">
+        <v>-0.01885495025358485</v>
+      </c>
+      <c r="H48">
+        <v>-0.1249656520261108</v>
+      </c>
+      <c r="I48">
+        <v>0.004892151908901061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004198765383267057</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.009198416331691574</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.00744035980267026</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0004996980087133572</v>
+      </c>
+      <c r="F49">
+        <v>-0.006821052699154472</v>
+      </c>
+      <c r="G49">
+        <v>-0.02008326850379884</v>
+      </c>
+      <c r="H49">
+        <v>0.0118819054263934</v>
+      </c>
+      <c r="I49">
+        <v>0.001924706378245171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.008724576673354401</v>
+        <v>-0.01165244216316934</v>
       </c>
       <c r="C50">
-        <v>0.09252397653869451</v>
+        <v>-0.09159933444327845</v>
       </c>
       <c r="D50">
-        <v>-0.005417915800166252</v>
+        <v>0.008885017668033025</v>
       </c>
       <c r="E50">
-        <v>-0.002985925378190549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00140768186060386</v>
+      </c>
+      <c r="F50">
+        <v>0.01818735395809504</v>
+      </c>
+      <c r="G50">
+        <v>0.02243741889819662</v>
+      </c>
+      <c r="H50">
+        <v>-0.06255645650227656</v>
+      </c>
+      <c r="I50">
+        <v>-0.04808436221694164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.006674185520591968</v>
+        <v>0.004630393242617341</v>
       </c>
       <c r="C51">
-        <v>0.04049259317351737</v>
+        <v>-0.03620113402127392</v>
       </c>
       <c r="D51">
-        <v>-0.07694238460031499</v>
+        <v>0.002348292439486678</v>
       </c>
       <c r="E51">
-        <v>-0.0563490959067226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06187601009876764</v>
+      </c>
+      <c r="F51">
+        <v>-0.004068268869298276</v>
+      </c>
+      <c r="G51">
+        <v>0.002371010047107294</v>
+      </c>
+      <c r="H51">
+        <v>-0.1079527561108166</v>
+      </c>
+      <c r="I51">
+        <v>0.02624462383829182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.04846412094904221</v>
+        <v>-0.05186732400342862</v>
       </c>
       <c r="C53">
-        <v>0.1657426677201067</v>
+        <v>-0.1526761933143587</v>
       </c>
       <c r="D53">
-        <v>0.05846045877746642</v>
+        <v>0.04680128144448176</v>
       </c>
       <c r="E53">
-        <v>0.02946987445732969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.08951089662855902</v>
+      </c>
+      <c r="F53">
+        <v>0.007792477392057753</v>
+      </c>
+      <c r="G53">
+        <v>0.03392416420512415</v>
+      </c>
+      <c r="H53">
+        <v>-0.01330854119359414</v>
+      </c>
+      <c r="I53">
+        <v>-0.01785751560722319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.004150299098687592</v>
+        <v>-0.01253678425992878</v>
       </c>
       <c r="C54">
-        <v>0.03534616432304513</v>
+        <v>-0.05983240164752009</v>
       </c>
       <c r="D54">
-        <v>-0.06947333792668282</v>
+        <v>-0.01755769065711702</v>
       </c>
       <c r="E54">
-        <v>-0.02485099220974706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05352937425834221</v>
+      </c>
+      <c r="F54">
+        <v>0.01156041281423613</v>
+      </c>
+      <c r="G54">
+        <v>-0.01221030368619173</v>
+      </c>
+      <c r="H54">
+        <v>-0.09116561537487752</v>
+      </c>
+      <c r="I54">
+        <v>0.03501452341979072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.03745720758994357</v>
+        <v>-0.03253872069190603</v>
       </c>
       <c r="C55">
-        <v>0.1347254388056047</v>
+        <v>-0.1125414119846779</v>
       </c>
       <c r="D55">
-        <v>0.05644854332596453</v>
+        <v>0.05026374837819152</v>
       </c>
       <c r="E55">
-        <v>0.01001334217721657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.07411408657796976</v>
+      </c>
+      <c r="F55">
+        <v>-0.002930373025078804</v>
+      </c>
+      <c r="G55">
+        <v>0.0248749570846112</v>
+      </c>
+      <c r="H55">
+        <v>-0.02107172960202075</v>
+      </c>
+      <c r="I55">
+        <v>0.02193335004703638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.04947482793865562</v>
+        <v>-0.04541157126322676</v>
       </c>
       <c r="C56">
-        <v>0.2010323300085536</v>
+        <v>-0.1819288781760245</v>
       </c>
       <c r="D56">
-        <v>0.08290454006432757</v>
+        <v>0.07290068348888865</v>
       </c>
       <c r="E56">
-        <v>0.05737485064026202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1257826718320389</v>
+      </c>
+      <c r="F56">
+        <v>-0.003888203177806615</v>
+      </c>
+      <c r="G56">
+        <v>0.07649222773957672</v>
+      </c>
+      <c r="H56">
+        <v>-0.005227545844800353</v>
+      </c>
+      <c r="I56">
+        <v>-0.02117867756873311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01058276994145413</v>
+        <v>-0.007267974403623235</v>
       </c>
       <c r="C58">
-        <v>0.1405607256537316</v>
+        <v>-0.1568854031718108</v>
       </c>
       <c r="D58">
-        <v>-0.2805716002162424</v>
+        <v>-0.04301403294512801</v>
       </c>
       <c r="E58">
-        <v>-0.09531319497906797</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2558420551488269</v>
+      </c>
+      <c r="F58">
+        <v>0.04338266050200307</v>
+      </c>
+      <c r="G58">
+        <v>0.2375788711792945</v>
+      </c>
+      <c r="H58">
+        <v>0.005872904145698949</v>
+      </c>
+      <c r="I58">
+        <v>0.02608780486297829</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.253779450976194</v>
+        <v>-0.2739131692665872</v>
       </c>
       <c r="C59">
-        <v>-0.02176820311093583</v>
+        <v>0.03297648727567976</v>
       </c>
       <c r="D59">
-        <v>-0.0708471637227141</v>
+        <v>-0.01513174625106226</v>
       </c>
       <c r="E59">
-        <v>0.001682393095921883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04606308746937874</v>
+      </c>
+      <c r="F59">
+        <v>-0.02154635784225349</v>
+      </c>
+      <c r="G59">
+        <v>0.017088012241568</v>
+      </c>
+      <c r="H59">
+        <v>0.02035626817489423</v>
+      </c>
+      <c r="I59">
+        <v>-0.09998341685739773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1174758120068757</v>
+        <v>-0.1443499553046526</v>
       </c>
       <c r="C60">
-        <v>0.1635905048790401</v>
+        <v>-0.1696347436688593</v>
       </c>
       <c r="D60">
-        <v>0.006367837124232906</v>
+        <v>0.02310032921953023</v>
       </c>
       <c r="E60">
-        <v>-0.04453613553894285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.004325366080365565</v>
+      </c>
+      <c r="F60">
+        <v>-0.09028056861060725</v>
+      </c>
+      <c r="G60">
+        <v>-0.276500811191837</v>
+      </c>
+      <c r="H60">
+        <v>0.2796786576561416</v>
+      </c>
+      <c r="I60">
+        <v>0.05848348208122283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.00592343258682633</v>
+        <v>-0.01356096489797938</v>
       </c>
       <c r="C61">
-        <v>0.07748181009364723</v>
+        <v>-0.1002123920329062</v>
       </c>
       <c r="D61">
-        <v>-0.04303881219373577</v>
+        <v>0.02154699376461277</v>
       </c>
       <c r="E61">
-        <v>-0.05834100641316455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05144521899815192</v>
+      </c>
+      <c r="F61">
+        <v>0.001968144166668602</v>
+      </c>
+      <c r="G61">
+        <v>-0.0553682961795491</v>
+      </c>
+      <c r="H61">
+        <v>-0.05787734034938045</v>
+      </c>
+      <c r="I61">
+        <v>0.0184533199691797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006497069707217647</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0005768367229936743</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001277801685621634</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0004203685909741179</v>
+      </c>
+      <c r="F62">
+        <v>0.0008543134596079695</v>
+      </c>
+      <c r="G62">
+        <v>0.002149721124364226</v>
+      </c>
+      <c r="H62">
+        <v>-0.005541668297353405</v>
+      </c>
+      <c r="I62">
+        <v>-0.002392584230865275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007570304287800653</v>
+        <v>-0.01441994430675495</v>
       </c>
       <c r="C63">
-        <v>0.05147766650860268</v>
+        <v>-0.07074170950543542</v>
       </c>
       <c r="D63">
-        <v>-0.04034158854367475</v>
+        <v>0.02563550281351555</v>
       </c>
       <c r="E63">
-        <v>-0.03669839272680975</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.04999149498180538</v>
+      </c>
+      <c r="F63">
+        <v>-0.002114384083762352</v>
+      </c>
+      <c r="G63">
+        <v>-0.03441323912587817</v>
+      </c>
+      <c r="H63">
+        <v>-0.07677330046905766</v>
+      </c>
+      <c r="I63">
+        <v>-0.01771083446192943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.005708911603494098</v>
+        <v>-0.01084605045104694</v>
       </c>
       <c r="C64">
-        <v>0.1303441788731105</v>
+        <v>-0.110200999710202</v>
       </c>
       <c r="D64">
-        <v>0.01321719325587789</v>
+        <v>0.02252911104526256</v>
       </c>
       <c r="E64">
-        <v>-0.04210537361146698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.009675584521348658</v>
+      </c>
+      <c r="F64">
+        <v>0.03240465628726926</v>
+      </c>
+      <c r="G64">
+        <v>-0.01987553992805165</v>
+      </c>
+      <c r="H64">
+        <v>0.002870779248570262</v>
+      </c>
+      <c r="I64">
+        <v>-0.01571058054040921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01460647142069533</v>
+        <v>-0.02389686698784348</v>
       </c>
       <c r="C65">
-        <v>0.06867233602944257</v>
+        <v>-0.086478576141879</v>
       </c>
       <c r="D65">
-        <v>-0.06409273034539752</v>
+        <v>-0.01105377307199156</v>
       </c>
       <c r="E65">
-        <v>-0.06038046426422917</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09082388165856775</v>
+      </c>
+      <c r="F65">
+        <v>0.0140089738552478</v>
+      </c>
+      <c r="G65">
+        <v>-0.07035688618042285</v>
+      </c>
+      <c r="H65">
+        <v>0.00787282977039103</v>
+      </c>
+      <c r="I65">
+        <v>0.03032511860334546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.001527242199712354</v>
+        <v>-0.005192220859912338</v>
       </c>
       <c r="C66">
-        <v>0.1282608240031804</v>
+        <v>-0.151260282808853</v>
       </c>
       <c r="D66">
-        <v>-0.1101396499577524</v>
+        <v>0.0006296629256388477</v>
       </c>
       <c r="E66">
-        <v>-0.08087762932974846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08735607331676642</v>
+      </c>
+      <c r="F66">
+        <v>-0.0004160668335058451</v>
+      </c>
+      <c r="G66">
+        <v>-0.02382749372318689</v>
+      </c>
+      <c r="H66">
+        <v>-0.05185076368964408</v>
+      </c>
+      <c r="I66">
+        <v>0.03905737487777509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0151671140915664</v>
+        <v>-0.01640792040065677</v>
       </c>
       <c r="C67">
-        <v>0.03965209864956721</v>
+        <v>-0.05587223278285913</v>
       </c>
       <c r="D67">
-        <v>0.007418981449217077</v>
+        <v>0.02396445546714393</v>
       </c>
       <c r="E67">
-        <v>-0.0349302506702867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02980327713924207</v>
+      </c>
+      <c r="F67">
+        <v>0.03902407380630951</v>
+      </c>
+      <c r="G67">
+        <v>-0.03281374969135042</v>
+      </c>
+      <c r="H67">
+        <v>-0.04156559077986237</v>
+      </c>
+      <c r="I67">
+        <v>-0.02404776774444396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.25461879117752</v>
+        <v>-0.2840675000157669</v>
       </c>
       <c r="C68">
-        <v>-0.03003024549415163</v>
+        <v>0.03656272120791656</v>
       </c>
       <c r="D68">
-        <v>-0.05513129781564437</v>
+        <v>-0.03591143066371195</v>
       </c>
       <c r="E68">
-        <v>0.01326906621822222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04301715221583199</v>
+      </c>
+      <c r="F68">
+        <v>0.001195693971015553</v>
+      </c>
+      <c r="G68">
+        <v>0.05508350722073176</v>
+      </c>
+      <c r="H68">
+        <v>0.02346505497695135</v>
+      </c>
+      <c r="I68">
+        <v>-0.09876742493586085</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.01563043361963425</v>
+        <v>-0.009939058514997278</v>
       </c>
       <c r="C69">
-        <v>0.1284755271766131</v>
+        <v>-0.0930493839867395</v>
       </c>
       <c r="D69">
-        <v>0.03531725415930394</v>
+        <v>0.0256991200945943</v>
       </c>
       <c r="E69">
-        <v>-0.01190931109707562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0226255232202658</v>
+      </c>
+      <c r="F69">
+        <v>0.01533870526811833</v>
+      </c>
+      <c r="G69">
+        <v>0.001605031274202415</v>
+      </c>
+      <c r="H69">
+        <v>-0.04965542476616277</v>
+      </c>
+      <c r="I69">
+        <v>-0.03555091339317046</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2670756431300285</v>
+        <v>-0.2715694968606187</v>
       </c>
       <c r="C71">
-        <v>-0.05976374208064415</v>
+        <v>0.06398999682050295</v>
       </c>
       <c r="D71">
-        <v>-0.05012486643657624</v>
+        <v>-0.02219389023461429</v>
       </c>
       <c r="E71">
-        <v>0.03068905945385257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0436550329981861</v>
+      </c>
+      <c r="F71">
+        <v>0.02650064185841582</v>
+      </c>
+      <c r="G71">
+        <v>0.009685936197844188</v>
+      </c>
+      <c r="H71">
+        <v>-0.06492409785887548</v>
+      </c>
+      <c r="I71">
+        <v>-0.1161713361051792</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.05361127842664221</v>
+        <v>-0.05596626353842152</v>
       </c>
       <c r="C72">
-        <v>0.1717035817555965</v>
+        <v>-0.1578021511733836</v>
       </c>
       <c r="D72">
-        <v>-0.02283749259155739</v>
+        <v>0.01599933695429706</v>
       </c>
       <c r="E72">
-        <v>-0.103081892824027</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.009277375609573311</v>
+      </c>
+      <c r="F72">
+        <v>-0.01149018231236886</v>
+      </c>
+      <c r="G72">
+        <v>-0.04168333905167607</v>
+      </c>
+      <c r="H72">
+        <v>0.045870279934531</v>
+      </c>
+      <c r="I72">
+        <v>0.08963371895881096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.09228203030196373</v>
+        <v>-0.1426464540243316</v>
       </c>
       <c r="C73">
-        <v>0.1663140652802742</v>
+        <v>-0.2068058636977742</v>
       </c>
       <c r="D73">
-        <v>0.02718661495013042</v>
+        <v>0.04113490246557081</v>
       </c>
       <c r="E73">
-        <v>-0.06372555751730477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.007547910551838619</v>
+      </c>
+      <c r="F73">
+        <v>-0.09151865150862665</v>
+      </c>
+      <c r="G73">
+        <v>-0.4525194827137437</v>
+      </c>
+      <c r="H73">
+        <v>0.2740963786199659</v>
+      </c>
+      <c r="I73">
+        <v>-0.02779039071076459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.03929290500445914</v>
+        <v>-0.03982028146795941</v>
       </c>
       <c r="C74">
-        <v>0.1261813777369299</v>
+        <v>-0.1180181749038389</v>
       </c>
       <c r="D74">
-        <v>0.08055154290861961</v>
+        <v>0.04745630100602024</v>
       </c>
       <c r="E74">
-        <v>0.01640791848123885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07469057989812229</v>
+      </c>
+      <c r="F74">
+        <v>0.01181724563134007</v>
+      </c>
+      <c r="G74">
+        <v>0.01932735491490919</v>
+      </c>
+      <c r="H74">
+        <v>-0.01828564647003155</v>
+      </c>
+      <c r="I74">
+        <v>0.01495596084194041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.09502440604611113</v>
+        <v>-0.06951000269289867</v>
       </c>
       <c r="C75">
-        <v>0.2458707303654885</v>
+        <v>-0.2099682959106669</v>
       </c>
       <c r="D75">
-        <v>0.1918277928936276</v>
+        <v>0.09599493370187318</v>
       </c>
       <c r="E75">
-        <v>0.08732246887231129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2250030130398248</v>
+      </c>
+      <c r="F75">
+        <v>0.08240959008308635</v>
+      </c>
+      <c r="G75">
+        <v>0.09503583414611544</v>
+      </c>
+      <c r="H75">
+        <v>0.009487853668714123</v>
+      </c>
+      <c r="I75">
+        <v>-0.06770412887510439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04100395857387017</v>
+        <v>-0.03873397292278203</v>
       </c>
       <c r="C76">
-        <v>0.158808468903249</v>
+        <v>-0.1497891284677543</v>
       </c>
       <c r="D76">
-        <v>0.08523267668095048</v>
+        <v>0.07279127965154117</v>
       </c>
       <c r="E76">
-        <v>0.01801293476522952</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0983088024155684</v>
+      </c>
+      <c r="F76">
+        <v>0.001637402890469297</v>
+      </c>
+      <c r="G76">
+        <v>0.003655909761450109</v>
+      </c>
+      <c r="H76">
+        <v>-0.02418442293198657</v>
+      </c>
+      <c r="I76">
+        <v>-0.002918714077538128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02005928311838965</v>
+        <v>-0.0188704582310727</v>
       </c>
       <c r="C77">
-        <v>0.134549384168852</v>
+        <v>-0.2203369804616458</v>
       </c>
       <c r="D77">
-        <v>-0.4745673483898823</v>
+        <v>-0.9398726152709886</v>
       </c>
       <c r="E77">
-        <v>0.789415589770235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.217415326485109</v>
+      </c>
+      <c r="F77">
+        <v>0.02525438032855241</v>
+      </c>
+      <c r="G77">
+        <v>-0.02297271130705399</v>
+      </c>
+      <c r="H77">
+        <v>-0.05156516687058914</v>
+      </c>
+      <c r="I77">
+        <v>0.02755653157260263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01639503267094471</v>
+        <v>-0.02181041216227388</v>
       </c>
       <c r="C78">
-        <v>0.1421336623685564</v>
+        <v>-0.1251378220453621</v>
       </c>
       <c r="D78">
-        <v>-0.1127935475569235</v>
+        <v>0.04781417234790598</v>
       </c>
       <c r="E78">
-        <v>-0.0682583593389321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06143102439046851</v>
+      </c>
+      <c r="F78">
+        <v>-0.01933295230647601</v>
+      </c>
+      <c r="G78">
+        <v>0.08063839341847359</v>
+      </c>
+      <c r="H78">
+        <v>-0.1445335433014213</v>
+      </c>
+      <c r="I78">
+        <v>0.1187459896893808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.05845302667279533</v>
+        <v>-0.05516024372139193</v>
       </c>
       <c r="C79">
-        <v>0.2871630207914681</v>
+        <v>-0.2143735820293017</v>
       </c>
       <c r="D79">
-        <v>0.2090355063024652</v>
+        <v>0.09086289302805559</v>
       </c>
       <c r="E79">
-        <v>0.1047772614329572</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2346157677089901</v>
+      </c>
+      <c r="F79">
+        <v>0.00274533418579261</v>
+      </c>
+      <c r="G79">
+        <v>0.1705238009552234</v>
+      </c>
+      <c r="H79">
+        <v>-0.0426444859134993</v>
+      </c>
+      <c r="I79">
+        <v>-0.08360718101798292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.0122616941164648</v>
+        <v>-0.006330346267925667</v>
       </c>
       <c r="C80">
-        <v>0.06231674220346512</v>
+        <v>-0.06101006502865384</v>
       </c>
       <c r="D80">
-        <v>-0.0006513115082647146</v>
+        <v>0.03448207284992687</v>
       </c>
       <c r="E80">
-        <v>-0.04265173974148811</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04694783857487095</v>
+      </c>
+      <c r="F80">
+        <v>-0.07042670645296233</v>
+      </c>
+      <c r="G80">
+        <v>-0.04595254489861988</v>
+      </c>
+      <c r="H80">
+        <v>0.03870696400291434</v>
+      </c>
+      <c r="I80">
+        <v>-0.05014422180060973</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.03445030402992103</v>
+        <v>-0.02218430746697234</v>
       </c>
       <c r="C81">
-        <v>0.1480051265233307</v>
+        <v>-0.1301467674902698</v>
       </c>
       <c r="D81">
-        <v>0.1168615712500112</v>
+        <v>0.05016850321384656</v>
       </c>
       <c r="E81">
-        <v>0.05912408845003802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1026361659168289</v>
+      </c>
+      <c r="F81">
+        <v>0.01581713453179636</v>
+      </c>
+      <c r="G81">
+        <v>0.06156848492483504</v>
+      </c>
+      <c r="H81">
+        <v>-0.06865469941449098</v>
+      </c>
+      <c r="I81">
+        <v>-0.07560813789224595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.06100447096256365</v>
+        <v>-0.05006709579991916</v>
       </c>
       <c r="C82">
-        <v>0.1855829539322753</v>
+        <v>-0.1499750805128266</v>
       </c>
       <c r="D82">
-        <v>0.1397067912400768</v>
+        <v>0.08306733456910639</v>
       </c>
       <c r="E82">
-        <v>0.03246068108301461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1316564270771797</v>
+      </c>
+      <c r="F82">
+        <v>-0.002647199520783878</v>
+      </c>
+      <c r="G82">
+        <v>0.03542980276814407</v>
+      </c>
+      <c r="H82">
+        <v>-0.03529483440874755</v>
+      </c>
+      <c r="I82">
+        <v>-0.04734892445095131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.005270280852310794</v>
+        <v>0.0009739636032956115</v>
       </c>
       <c r="C83">
-        <v>0.06556555818559928</v>
+        <v>-0.0170442505721996</v>
       </c>
       <c r="D83">
-        <v>-0.05129649265984907</v>
+        <v>-0.03558831850704857</v>
       </c>
       <c r="E83">
-        <v>0.017851371764094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.009148227375467393</v>
+      </c>
+      <c r="F83">
+        <v>-0.9419661525062557</v>
+      </c>
+      <c r="G83">
+        <v>0.1939420042418331</v>
+      </c>
+      <c r="H83">
+        <v>0.02372383461560882</v>
+      </c>
+      <c r="I83">
+        <v>-0.09771763333760351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.004125730432604088</v>
+        <v>0.002688965141849623</v>
       </c>
       <c r="C84">
-        <v>0.02509643784286049</v>
+        <v>-0.03704826362016091</v>
       </c>
       <c r="D84">
-        <v>-0.03866461002419174</v>
+        <v>0.03765449565785702</v>
       </c>
       <c r="E84">
-        <v>-0.06193492014246686</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0687109098979618</v>
+      </c>
+      <c r="F84">
+        <v>0.04331304640421909</v>
+      </c>
+      <c r="G84">
+        <v>0.06098456584272289</v>
+      </c>
+      <c r="H84">
+        <v>-0.06400446755852611</v>
+      </c>
+      <c r="I84">
+        <v>0.05261331608751687</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.04626962054488504</v>
+        <v>-0.03488181393800144</v>
       </c>
       <c r="C85">
-        <v>0.1889870776138549</v>
+        <v>-0.1517606531168937</v>
       </c>
       <c r="D85">
-        <v>0.139243996467946</v>
+        <v>0.0922651428827594</v>
       </c>
       <c r="E85">
-        <v>0.04184989123964925</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1671613050566716</v>
+      </c>
+      <c r="F85">
+        <v>0.009705568355916417</v>
+      </c>
+      <c r="G85">
+        <v>0.07708104684045923</v>
+      </c>
+      <c r="H85">
+        <v>-0.02665054358444929</v>
+      </c>
+      <c r="I85">
+        <v>-0.04384149277321062</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01800984502063131</v>
+        <v>-0.01297776662941855</v>
       </c>
       <c r="C86">
-        <v>0.04979481482524737</v>
+        <v>-0.07215515998542064</v>
       </c>
       <c r="D86">
-        <v>-0.09387392541946497</v>
+        <v>-0.01583972780105172</v>
       </c>
       <c r="E86">
-        <v>0.03830447810622695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.05775058015422659</v>
+      </c>
+      <c r="F86">
+        <v>0.03900259059901398</v>
+      </c>
+      <c r="G86">
+        <v>0.07936235216506568</v>
+      </c>
+      <c r="H86">
+        <v>-0.07563362663912296</v>
+      </c>
+      <c r="I86">
+        <v>-0.08285661946267579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01819746987000911</v>
+        <v>-0.01415022928293759</v>
       </c>
       <c r="C87">
-        <v>0.1113637439290446</v>
+        <v>-0.1215763798093139</v>
       </c>
       <c r="D87">
-        <v>-0.1427146049596299</v>
+        <v>-0.03064279344014812</v>
       </c>
       <c r="E87">
-        <v>-0.06899176257149711</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1132694334865433</v>
+      </c>
+      <c r="F87">
+        <v>0.0191291194471873</v>
+      </c>
+      <c r="G87">
+        <v>0.03666639561569465</v>
+      </c>
+      <c r="H87">
+        <v>-0.02128274611320309</v>
+      </c>
+      <c r="I87">
+        <v>0.139114977060283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01574981887366982</v>
+        <v>-0.03092344324991337</v>
       </c>
       <c r="C88">
-        <v>0.08191729483403944</v>
+        <v>-0.08663304607734512</v>
       </c>
       <c r="D88">
-        <v>0.05247396402717841</v>
+        <v>0.02820898965440618</v>
       </c>
       <c r="E88">
-        <v>-0.006815111540048375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01582299104007146</v>
+      </c>
+      <c r="F88">
+        <v>0.005219300995549186</v>
+      </c>
+      <c r="G88">
+        <v>-0.02220272140568632</v>
+      </c>
+      <c r="H88">
+        <v>-0.01153861886865221</v>
+      </c>
+      <c r="I88">
+        <v>-0.03110171878991008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4597860675277241</v>
+        <v>-0.4155004444496225</v>
       </c>
       <c r="C89">
-        <v>-0.1148745239526858</v>
+        <v>0.1190695573197937</v>
       </c>
       <c r="D89">
-        <v>0.0145946694576298</v>
+        <v>-0.009034804499511944</v>
       </c>
       <c r="E89">
-        <v>-0.2513591685766782</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04041800832972275</v>
+      </c>
+      <c r="F89">
+        <v>-0.07362255478597915</v>
+      </c>
+      <c r="G89">
+        <v>0.09709314154196867</v>
+      </c>
+      <c r="H89">
+        <v>-0.05002861671272889</v>
+      </c>
+      <c r="I89">
+        <v>0.7853198282876264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3320262825213837</v>
+        <v>-0.3262634237208496</v>
       </c>
       <c r="C90">
-        <v>-0.06323760506465566</v>
+        <v>0.06564216704486345</v>
       </c>
       <c r="D90">
-        <v>-0.08200858681465467</v>
+        <v>-0.02341568209719181</v>
       </c>
       <c r="E90">
-        <v>0.0143282033001958</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04587304264236536</v>
+      </c>
+      <c r="F90">
+        <v>0.0128656409603961</v>
+      </c>
+      <c r="G90">
+        <v>0.02045165363102704</v>
+      </c>
+      <c r="H90">
+        <v>0.01346628478921045</v>
+      </c>
+      <c r="I90">
+        <v>-0.1589343786718282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.04867022277467466</v>
+        <v>-0.05125969135521227</v>
       </c>
       <c r="C91">
-        <v>0.1724882180427846</v>
+        <v>-0.1371485602591305</v>
       </c>
       <c r="D91">
-        <v>0.1125635112747634</v>
+        <v>0.04837903865574882</v>
       </c>
       <c r="E91">
-        <v>0.06580592848411752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1302831303174894</v>
+      </c>
+      <c r="F91">
+        <v>-0.02986947921870658</v>
+      </c>
+      <c r="G91">
+        <v>0.05581390643228525</v>
+      </c>
+      <c r="H91">
+        <v>-0.009966319168056554</v>
+      </c>
+      <c r="I91">
+        <v>-0.02225203598886823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3454868385589585</v>
+        <v>-0.3497042869330187</v>
       </c>
       <c r="C92">
-        <v>-0.1121219591430291</v>
+        <v>0.1151699520662613</v>
       </c>
       <c r="D92">
-        <v>-0.06499146049020499</v>
+        <v>-0.05146091568366173</v>
       </c>
       <c r="E92">
-        <v>0.04414851369796895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.05756789450394445</v>
+      </c>
+      <c r="F92">
+        <v>0.08991683866506246</v>
+      </c>
+      <c r="G92">
+        <v>0.02914989671134021</v>
+      </c>
+      <c r="H92">
+        <v>-0.03903106033601358</v>
+      </c>
+      <c r="I92">
+        <v>-0.166368262741808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3403333590583956</v>
+        <v>-0.3288442749088925</v>
       </c>
       <c r="C93">
-        <v>-0.08712111644003893</v>
+        <v>0.1042333811077575</v>
       </c>
       <c r="D93">
-        <v>0.01564735727407263</v>
+        <v>0.005661048756757108</v>
       </c>
       <c r="E93">
-        <v>0.02043888027541026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007956610653314579</v>
+      </c>
+      <c r="F93">
+        <v>0.01736837350325545</v>
+      </c>
+      <c r="G93">
+        <v>0.03339738936785314</v>
+      </c>
+      <c r="H93">
+        <v>-0.04299810347740719</v>
+      </c>
+      <c r="I93">
+        <v>-0.1048455090564376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.09718337224516253</v>
+        <v>-0.08621534997613202</v>
       </c>
       <c r="C94">
-        <v>0.2820899174401296</v>
+        <v>-0.2271947175069038</v>
       </c>
       <c r="D94">
-        <v>0.2828906899069209</v>
+        <v>0.1433541871818813</v>
       </c>
       <c r="E94">
-        <v>0.09590524245059007</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3796005527212663</v>
+      </c>
+      <c r="F94">
+        <v>0.02774836861125698</v>
+      </c>
+      <c r="G94">
+        <v>0.2729051903704283</v>
+      </c>
+      <c r="H94">
+        <v>0.1181629085289088</v>
+      </c>
+      <c r="I94">
+        <v>0.1718333494763215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02780080687852797</v>
+        <v>-0.03249492332757311</v>
       </c>
       <c r="C95">
-        <v>0.05678579692341939</v>
+        <v>-0.1072257099795804</v>
       </c>
       <c r="D95">
-        <v>-0.01041963269954602</v>
+        <v>0.0003291904007803372</v>
       </c>
       <c r="E95">
-        <v>-0.03521569806797298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0343195068301661</v>
+      </c>
+      <c r="F95">
+        <v>0.03103593105259641</v>
+      </c>
+      <c r="G95">
+        <v>-0.1245866886446259</v>
+      </c>
+      <c r="H95">
+        <v>-0.05440766278519624</v>
+      </c>
+      <c r="I95">
+        <v>0.01093551043638194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003980558163756012</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006604837152574641</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02252712882084241</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01642182347088574</v>
+      </c>
+      <c r="F97">
+        <v>0.01632279557818275</v>
+      </c>
+      <c r="G97">
+        <v>-0.02080800984433888</v>
+      </c>
+      <c r="H97">
+        <v>0.009054360887054209</v>
+      </c>
+      <c r="I97">
+        <v>-0.0105355555395061</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.07873726503581471</v>
+        <v>-0.1247163374799371</v>
       </c>
       <c r="C98">
-        <v>0.1535971929621195</v>
+        <v>-0.1754453438017697</v>
       </c>
       <c r="D98">
-        <v>-0.0252345992214247</v>
+        <v>0.04521064795940453</v>
       </c>
       <c r="E98">
-        <v>-0.05732873431719644</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.02678413009770028</v>
+      </c>
+      <c r="F98">
+        <v>-0.05292247849133533</v>
+      </c>
+      <c r="G98">
+        <v>-0.3802249308401933</v>
+      </c>
+      <c r="H98">
+        <v>0.3228342533068101</v>
+      </c>
+      <c r="I98">
+        <v>0.02332511211658909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003784463272992742</v>
+        <v>-0.002273323031588029</v>
       </c>
       <c r="C101">
-        <v>0.04044864978748558</v>
+        <v>-0.06874644570205658</v>
       </c>
       <c r="D101">
-        <v>-0.07320198418234347</v>
+        <v>0.01154721398067052</v>
       </c>
       <c r="E101">
-        <v>-0.09248708554415679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1155107165908997</v>
+      </c>
+      <c r="F101">
+        <v>-0.03755073601032449</v>
+      </c>
+      <c r="G101">
+        <v>-0.092036153091605</v>
+      </c>
+      <c r="H101">
+        <v>-0.1967673652504701</v>
+      </c>
+      <c r="I101">
+        <v>0.05609124173202727</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.02817984279241345</v>
+        <v>-0.0122049482659458</v>
       </c>
       <c r="C102">
-        <v>0.1056709717944119</v>
+        <v>-0.0524178202246328</v>
       </c>
       <c r="D102">
-        <v>0.06954794750197124</v>
+        <v>0.0258866207346841</v>
       </c>
       <c r="E102">
-        <v>0.02736702795023207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07258491673379662</v>
+      </c>
+      <c r="F102">
+        <v>-0.008299774804090356</v>
+      </c>
+      <c r="G102">
+        <v>0.03760325058785185</v>
+      </c>
+      <c r="H102">
+        <v>-0.001704140730086266</v>
+      </c>
+      <c r="I102">
+        <v>0.008715279347860446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
